--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreea.ghetu\Documents\UiPath\CSharpChanges\StudioTemplates\REFramework\C#\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RimelSte\Documents\UiPath\CReSTREF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96902286-4E3C-425E-A0BF-F83C72A8C5F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D59688-73AE-4576-994B-BD5B931A30F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3490" yWindow="0" windowWidth="14400" windowHeight="9350" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
-    <sheet name="Constants" sheetId="2" r:id="rId2"/>
-    <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Transactions" sheetId="4" r:id="rId2"/>
+    <sheet name="PopulateErrors" sheetId="5" r:id="rId3"/>
+    <sheet name="Constants" sheetId="2" r:id="rId4"/>
+    <sheet name="Assets" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -88,10 +90,6 @@
   </si>
   <si>
     <t>Framework</t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -161,13 +159,25 @@
   </si>
   <si>
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+  </si>
+  <si>
+    <t>../CReST</t>
+  </si>
+  <si>
+    <t>TestDate</t>
+  </si>
+  <si>
+    <t>ActiveCrossReference</t>
+  </si>
+  <si>
+    <t>ProductFamilyInformation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -178,6 +188,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -187,6 +198,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -212,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -227,6 +245,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,19 +562,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75">
+    <row r="1" spans="1:26" ht="18.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,27 +610,30 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="45">
+    </row>
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -619,7 +641,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -630,22 +652,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50324A93-DA14-4B20-8A0E-EDB2F129DB31}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.5">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722A6BE2-FBCF-4822-A601-6C9D39BD5DF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" s="8" customFormat="1" ht="18.5"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75">
+    <row r="1" spans="1:26" ht="18.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +748,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -687,18 +756,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -725,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -747,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -758,7 +827,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -769,18 +838,18 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -790,35 +859,45 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -827,20 +906,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -851,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
